--- a/fertilizer.xlsx
+++ b/fertilizer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DFEAE5-2FE7-4697-802A-E3C3F8CC02F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF3DAAE-CA90-49B5-9C5E-4516BA5473CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18860" yWindow="4020" windowWidth="19470" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20440" yWindow="1700" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>ICL</t>
+  </si>
+  <si>
+    <t>Lavoro</t>
+  </si>
+  <si>
+    <t>LVRO, LVROW</t>
   </si>
 </sst>
 </file>
@@ -594,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -718,6 +724,14 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/fertilizer.xlsx
+++ b/fertilizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF3DAAE-CA90-49B5-9C5E-4516BA5473CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0868A13-00DB-4C26-9EA3-79DE2506835E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20440" yWindow="1700" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15740" yWindow="2800" windowWidth="16820" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,21 @@
     <sheet name="Launches" sheetId="8" r:id="rId8"/>
     <sheet name="Foreign" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -603,7 +614,7 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -717,7 +728,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -735,6 +746,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{5886C58C-F7B0-4E55-BC9C-551E1CBCF3F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
